--- a/data.xlsx
+++ b/data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6780"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16335" windowHeight="5130"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="43">
   <si>
     <t>MSLINK</t>
   </si>
@@ -98,9 +98,6 @@
     <t>https://safsaprod.blob.core.windows.net/gistudio/fsapictures/MACAPA%5CMACAPA_0740%5CMACAPA_0740_RD_POSTES-9801-32792-00.jpg?reload=true&amp;W=-1&amp;H=-1</t>
   </si>
   <si>
-    <t>https://phot-viewer.netlify.app/6465465</t>
-  </si>
-  <si>
     <t>139102</t>
   </si>
   <si>
@@ -150,6 +147,12 @@
   </si>
   <si>
     <t>https://safsaprod.blob.core.windows.net/gistudio/fsapictures/MACAPA%5CMACAPA_0747%5CMACAPA_0747_RD_POSTES-1370-35324-00.jpg?reload=true&amp;W=-1&amp;H=-1</t>
+  </si>
+  <si>
+    <t>https://photo-viewer-node.onrender.com/</t>
+  </si>
+  <si>
+    <t>VISUALIZAR NA WEB</t>
   </si>
 </sst>
 </file>
@@ -236,7 +239,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -250,6 +253,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -531,18 +540,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.28515625" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="39.7109375" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="23" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="43.42578125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="4.7109375" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="28.28515625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="20.85546875" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="24" customWidth="1"/>
+    <col min="13" max="13" width="42.42578125" customWidth="1"/>
+    <col min="14" max="14" width="40.28515625" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="49.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -582,8 +605,14 @@
       <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="N1" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>114200882</v>
       </c>
@@ -621,16 +650,20 @@
       <c r="M2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="5" t="s">
-        <v>24</v>
+      <c r="N2" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="O2" s="5" t="str">
+        <f>HYPERLINK(CONCATENATE(N2,A2))</f>
+        <v>https://photo-viewer-node.onrender.com/114200882</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>114201518</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>14</v>
@@ -658,18 +691,25 @@
         <v>21</v>
       </c>
       <c r="L3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="M3" s="7" t="s">
-        <v>27</v>
+      <c r="N3" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="O3" s="5" t="str">
+        <f t="shared" ref="O3:O6" si="0">HYPERLINK(CONCATENATE(N3,A3))</f>
+        <v>https://photo-viewer-node.onrender.com/114201518</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>114159215</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>14</v>
@@ -691,24 +731,31 @@
         <v>19</v>
       </c>
       <c r="J4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="M4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="8" t="s">
-        <v>32</v>
+      <c r="N4" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="O4" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>https://photo-viewer-node.onrender.com/114159215</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>114201603</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>14</v>
@@ -718,16 +765,16 @@
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>21</v>
@@ -736,18 +783,25 @@
         <v>21</v>
       </c>
       <c r="L5" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="M5" s="8" t="s">
-        <v>38</v>
+      <c r="N5" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="O5" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>https://photo-viewer-node.onrender.com/114201603</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>114203128</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>14</v>
@@ -757,16 +811,16 @@
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>21</v>
@@ -775,10 +829,17 @@
         <v>21</v>
       </c>
       <c r="L6" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="M6" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="M6" s="8" t="s">
+      <c r="N6" s="9" t="s">
         <v>41</v>
+      </c>
+      <c r="O6" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>https://photo-viewer-node.onrender.com/114203128</v>
       </c>
     </row>
   </sheetData>
@@ -787,14 +848,19 @@
     <hyperlink ref="L3" r:id="rId2"/>
     <hyperlink ref="M2" r:id="rId3"/>
     <hyperlink ref="L2" r:id="rId4"/>
-    <hyperlink ref="N2" r:id="rId5" display="https://phot-viewer.netlify.app/"/>
-    <hyperlink ref="M4" r:id="rId6"/>
-    <hyperlink ref="L4" r:id="rId7"/>
-    <hyperlink ref="M5" r:id="rId8"/>
-    <hyperlink ref="L5" r:id="rId9"/>
-    <hyperlink ref="M6" r:id="rId10"/>
-    <hyperlink ref="L6" r:id="rId11"/>
+    <hyperlink ref="M4" r:id="rId5"/>
+    <hyperlink ref="L4" r:id="rId6"/>
+    <hyperlink ref="M5" r:id="rId7"/>
+    <hyperlink ref="L5" r:id="rId8"/>
+    <hyperlink ref="M6" r:id="rId9"/>
+    <hyperlink ref="L6" r:id="rId10"/>
+    <hyperlink ref="N2" r:id="rId11"/>
+    <hyperlink ref="N3" r:id="rId12"/>
+    <hyperlink ref="N4" r:id="rId13"/>
+    <hyperlink ref="N5" r:id="rId14"/>
+    <hyperlink ref="N6" r:id="rId15"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId16"/>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -542,26 +542,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.28515625" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="39.7109375" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="23" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="43.42578125" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="4.7109375" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="28.28515625" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="20.85546875" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="44.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" customWidth="1"/>
+    <col min="5" max="5" width="39.7109375" customWidth="1"/>
+    <col min="6" max="6" width="23" customWidth="1"/>
+    <col min="7" max="7" width="43.42578125" customWidth="1"/>
+    <col min="8" max="8" width="4.7109375" customWidth="1"/>
+    <col min="9" max="9" width="28.28515625" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" customWidth="1"/>
     <col min="12" max="12" width="24" customWidth="1"/>
     <col min="13" max="13" width="42.42578125" customWidth="1"/>
-    <col min="14" max="14" width="40.28515625" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="40.28515625" customWidth="1"/>
     <col min="15" max="15" width="49.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -797,9 +797,7 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>114203128</v>
-      </c>
+      <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
         <v>38</v>
       </c>
@@ -839,7 +837,7 @@
       </c>
       <c r="O6" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>https://photo-viewer-node.onrender.com/114203128</v>
+        <v>https://photo-viewer-node.onrender.com/</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -542,8 +542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -836,7 +836,7 @@
         <v>41</v>
       </c>
       <c r="O6" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f>HYPERLINK(CONCATENATE(N6,A6))</f>
         <v>https://photo-viewer-node.onrender.com/</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -542,8 +542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -700,7 +700,7 @@
         <v>41</v>
       </c>
       <c r="O3" s="5" t="str">
-        <f t="shared" ref="O3:O6" si="0">HYPERLINK(CONCATENATE(N3,A3))</f>
+        <f t="shared" ref="O3:O5" si="0">HYPERLINK(CONCATENATE(N3,A3))</f>
         <v>https://photo-viewer-node.onrender.com/114201518</v>
       </c>
     </row>
@@ -797,7 +797,9 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
+      <c r="A6" s="3">
+        <v>114203128</v>
+      </c>
       <c r="B6" s="3" t="s">
         <v>38</v>
       </c>
@@ -837,7 +839,7 @@
       </c>
       <c r="O6" s="5" t="str">
         <f>HYPERLINK(CONCATENATE(N6,A6))</f>
-        <v>https://photo-viewer-node.onrender.com/</v>
+        <v>https://photo-viewer-node.onrender.com/114203128</v>
       </c>
     </row>
   </sheetData>
